--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_AnhTuanBG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang7\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang7\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="37" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="109">
   <si>
     <t>STT</t>
   </si>
@@ -778,7 +778,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -800,21 +815,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1123,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M7" sqref="M6:M7"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1156,43 +1156,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="59"/>
@@ -1237,58 +1237,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1313,23 +1313,23 @@
       <c r="I5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1389,7 +1389,7 @@
         <v>93</v>
       </c>
       <c r="T6" s="67"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1450,7 +1450,7 @@
         <v>93</v>
       </c>
       <c r="T7" s="67"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1479,7 +1479,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1508,7 +1508,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1566,7 +1566,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1626,7 +1626,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1655,7 +1655,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1684,7 +1684,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1713,7 +1713,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2944,13 +2944,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2962,6 +2955,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2972,8 +2972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showZeros="0" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3005,43 +3005,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="59"/>
@@ -3086,58 +3086,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -3162,23 +3162,23 @@
       <c r="I5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3442,7 +3442,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3471,7 +3471,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3531,7 +3531,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3560,7 +3560,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3589,7 +3589,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3618,7 +3618,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4849,13 +4849,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4867,6 +4860,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4877,8 +4877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4910,43 +4910,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="59"/>
@@ -4991,58 +4991,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -5067,23 +5067,23 @@
       <c r="I5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5221,7 +5221,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5250,7 +5250,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5279,7 +5279,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5308,7 +5308,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5337,7 +5337,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5368,7 +5368,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5397,7 +5397,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5426,7 +5426,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5455,7 +5455,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6686,13 +6686,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6704,6 +6697,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6714,8 +6714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6747,43 +6747,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="59"/>
@@ -6828,58 +6828,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -6904,23 +6904,23 @@
       <c r="I5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7258,7 +7258,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7289,7 +7289,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7318,7 +7318,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7347,7 +7347,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7376,7 +7376,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8607,6 +8607,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8618,13 +8625,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8635,8 +8635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8668,43 +8668,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -8749,58 +8749,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -8825,49 +8825,83 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="B6" s="37">
+        <v>44389</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44392</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="39">
+        <v>864811036944705</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="4"/>
+      <c r="O6" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="T6" s="43"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8879,26 +8913,56 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="B7" s="37">
+        <v>44389</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44392</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="39">
+        <v>864811036970320</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="I7" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="4"/>
+      <c r="O7" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="T7" s="43"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8908,26 +8972,52 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="37">
+        <v>44389</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44392</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="39">
+        <v>865904027277422</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="I8" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8937,26 +9027,60 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="B9" s="37">
+        <v>44389</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44392</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="39">
+        <v>865904027282786</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N9" s="41">
+        <v>38000</v>
+      </c>
+      <c r="O9" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8966,26 +9090,54 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
+      <c r="B10" s="37">
+        <v>44389</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44392</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="39">
+        <v>866762026904209</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>85</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="M10" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" s="51">
+        <v>250000</v>
+      </c>
+      <c r="O10" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8995,26 +9147,58 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="B11" s="37">
+        <v>44389</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44392</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="39">
+        <v>865904028279369</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9024,26 +9208,48 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="37">
+        <v>44389</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44392</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="39">
+        <v>862631039279426</v>
+      </c>
       <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
+      <c r="G12" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="52"/>
       <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="M12" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="41"/>
+      <c r="O12" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9055,26 +9261,56 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="40"/>
+      <c r="B13" s="37">
+        <v>44389</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44392</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="39">
+        <v>863586034536189</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>73</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="K13" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" s="41"/>
+      <c r="O13" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9084,26 +9320,50 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="B14" s="37">
+        <v>44389</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44392</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="68">
+        <v>868183035905590</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="52"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" s="41"/>
+      <c r="O14" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9113,26 +9373,54 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
+      <c r="B15" s="37">
+        <v>44389</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44392</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="68">
+        <v>868183034804596</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" s="52"/>
+      <c r="M15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" s="41"/>
+      <c r="O15" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9142,26 +9430,50 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="B16" s="37">
+        <v>44389</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44392</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="68">
+        <v>868183037801839</v>
+      </c>
       <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="G16" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="M16" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="O16" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9171,23 +9483,53 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="37">
+        <v>44389</v>
+      </c>
+      <c r="C17" s="37">
+        <v>44392</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="68">
+        <v>867857039932970</v>
+      </c>
       <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
+      <c r="G17" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="38"/>
+      <c r="M17" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="51">
+        <v>250000</v>
+      </c>
+      <c r="O17" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
       <c r="U17" s="43"/>
@@ -9198,23 +9540,45 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="37">
+        <v>44389</v>
+      </c>
+      <c r="C18" s="37">
+        <v>44392</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="G18" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="62"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
+      <c r="O18" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -9225,23 +9589,31 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="38"/>
+      <c r="F19" s="55"/>
       <c r="G19" s="38"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="62"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="10"/>
+      <c r="O19" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P19" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
       <c r="U19" s="44" t="s">
@@ -9280,7 +9652,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -9312,7 +9684,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -9493,7 +9865,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -9525,7 +9897,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -9621,7 +9993,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -9749,7 +10121,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -9781,7 +10153,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -9813,7 +10185,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -9931,7 +10303,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -10166,7 +10538,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -10392,6 +10764,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10403,13 +10782,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
